--- a/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
@@ -767,28 +767,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
         <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="O3" t="n">
         <v>1.52</v>
@@ -800,58 +800,58 @@
         <v>2.37</v>
       </c>
       <c r="R3" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V3" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AB3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF3" t="n">
         <v>22</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AG3" t="n">
         <v>150</v>
       </c>
-      <c r="AD3" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>120</v>
-      </c>
       <c r="AH3" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
         <v>800</v>
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -907,13 +907,13 @@
         <v>1.45</v>
       </c>
       <c r="M4" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="N4" t="n">
         <v>2.32</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
@@ -928,10 +928,10 @@
         <v>1.7</v>
       </c>
       <c r="T4" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="U4" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="V4" t="n">
         <v>8.75</v>
@@ -940,7 +940,7 @@
         <v>16</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
         <v>37</v>
@@ -949,19 +949,19 @@
         <v>5.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>14.5</v>
@@ -970,10 +970,10 @@
         <v>75</v>
       </c>
       <c r="AH4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
         <v>800</v>
@@ -1379,23 +1379,23 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="O9" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1406,52 +1406,52 @@
         <v>2.12</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="U9" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V9" t="n">
         <v>8.25</v>
       </c>
       <c r="W9" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z9" t="n">
         <v>17.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
         <v>50</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH9" t="n">
         <v>40</v>
       </c>
-      <c r="AF9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>50</v>
-      </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ9" t="n">
         <v>300</v>
@@ -1492,20 +1492,20 @@
         <v>1.98</v>
       </c>
       <c r="H10" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="O10" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1513,16 +1513,16 @@
         <v>1.47</v>
       </c>
       <c r="S10" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="T10" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="U10" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="V10" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W10" t="n">
         <v>19</v>
@@ -1531,37 +1531,37 @@
         <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>11.25</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ10" t="n">
         <v>200</v>
@@ -1602,10 +1602,10 @@
         <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1616,7 +1616,7 @@
         <v>5.6</v>
       </c>
       <c r="N11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="O11" t="n">
         <v>2.92</v>
@@ -1625,25 +1625,25 @@
         <v>1.21</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="T11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U11" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V11" t="n">
         <v>8.75</v>
       </c>
       <c r="W11" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="X11" t="n">
         <v>10.25</v>
@@ -1655,7 +1655,7 @@
         <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB11" t="n">
         <v>14.5</v>
@@ -1664,13 +1664,13 @@
         <v>40</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
         <v>120</v>
@@ -1717,28 +1717,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
         <v>1.09</v>
       </c>
       <c r="K12" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="N12" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O12" t="n">
         <v>1.62</v>
@@ -1750,61 +1750,61 @@
         <v>2.37</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T12" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="U12" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="n">
         <v>9.25</v>
       </c>
       <c r="AE12" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AH12" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI12" t="n">
         <v>45</v>
       </c>
       <c r="AJ12" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -1961,87 +1961,87 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="N14" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R14" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="S14" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U14" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="V14" t="n">
         <v>9.25</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF14" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
     </row>
@@ -2076,35 +2076,89 @@
           <t>Guairena</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.85</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W15" t="n">
+        <v>26</v>
+      </c>
+      <c r="X15" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>55</v>
+      </c>
       <c r="AJ15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -2139,91 +2193,91 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="N16" t="n">
         <v>2.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P16" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="R16" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T16" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="U16" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V16" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
         <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ16" t="n">
         <v>1250</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
@@ -1602,10 +1602,10 @@
         <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="I11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1616,7 +1616,7 @@
         <v>5.6</v>
       </c>
       <c r="N11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="O11" t="n">
         <v>2.92</v>
@@ -1625,25 +1625,25 @@
         <v>1.21</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="T11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="U11" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V11" t="n">
         <v>8.75</v>
       </c>
       <c r="W11" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="X11" t="n">
         <v>10.25</v>
@@ -1655,7 +1655,7 @@
         <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB11" t="n">
         <v>14.5</v>
@@ -1664,13 +1664,13 @@
         <v>40</v>
       </c>
       <c r="AD11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG11" t="n">
         <v>120</v>
@@ -1738,10 +1738,10 @@
         <v>2.77</v>
       </c>
       <c r="N12" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P12" t="n">
         <v>1.52</v>
@@ -1756,7 +1756,7 @@
         <v>1.87</v>
       </c>
       <c r="T12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="U12" t="n">
         <v>9.75</v>
@@ -1780,7 +1780,7 @@
         <v>5.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
         <v>75</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
@@ -1272,16 +1272,16 @@
         <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
@@ -1011,31 +1011,31 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P5" t="n">
         <v>1.36</v>
@@ -1053,7 +1053,7 @@
         <v>7.5</v>
       </c>
       <c r="U5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V5" t="n">
         <v>8.5</v>
@@ -1080,10 +1080,10 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>15</v>
@@ -1278,10 +1278,10 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="O8" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
         <v>1.14</v>
@@ -686,7 +686,7 @@
         <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U2" t="n">
         <v>11</v>
@@ -719,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>13</v>
@@ -1278,10 +1278,10 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1961,13 +1961,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1996,16 +1996,16 @@
         <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="U14" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="V14" t="n">
         <v>9.25</v>
       </c>
       <c r="W14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X14" t="n">
         <v>18.5</v>
@@ -2014,10 +2014,10 @@
         <v>45</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB14" t="n">
         <v>23</v>
@@ -2026,13 +2026,13 @@
         <v>175</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG14" t="n">
         <v>80</v>
@@ -2041,7 +2041,7 @@
         <v>60</v>
       </c>
       <c r="AI14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
     </row>
@@ -2077,13 +2077,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -2112,31 +2112,31 @@
         <v>1.55</v>
       </c>
       <c r="T15" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U15" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="V15" t="n">
         <v>10.75</v>
       </c>
       <c r="W15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z15" t="n">
         <v>6.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
         <v>150</v>
@@ -2145,13 +2145,13 @@
         <v>6.4</v>
       </c>
       <c r="AE15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AH15" t="n">
         <v>32</v>
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
       </c>
       <c r="K17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
         <v>1.4</v>
@@ -2354,7 +2354,7 @@
         <v>1.73</v>
       </c>
       <c r="T17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U17" t="n">
         <v>12</v>
@@ -2369,7 +2369,7 @@
         <v>23</v>
       </c>
       <c r="Y17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="n">
         <v>7.5</v>
@@ -2381,10 +2381,10 @@
         <v>17</v>
       </c>
       <c r="AC17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>12</v>
@@ -2393,7 +2393,7 @@
         <v>11</v>
       </c>
       <c r="AG17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>1.67</v>
@@ -689,16 +689,16 @@
         <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W2" t="n">
         <v>29</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="n">
         <v>51</v>
@@ -725,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH2" t="n">
         <v>34</v>
@@ -767,19 +767,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
         <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.47</v>
@@ -800,22 +800,22 @@
         <v>2.37</v>
       </c>
       <c r="R3" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="S3" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="U3" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="V3" t="n">
         <v>9</v>
       </c>
       <c r="W3" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
@@ -824,22 +824,22 @@
         <v>45</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB3" t="n">
         <v>25</v>
       </c>
       <c r="AC3" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF3" t="n">
         <v>22</v>
@@ -848,7 +848,7 @@
         <v>150</v>
       </c>
       <c r="AH3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI3" t="n">
         <v>110</v>
@@ -1278,10 +1278,10 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1379,23 +1379,23 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H9" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="O9" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1406,7 +1406,7 @@
         <v>2.12</v>
       </c>
       <c r="T9" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U9" t="n">
         <v>9</v>
@@ -1436,7 +1436,7 @@
         <v>50</v>
       </c>
       <c r="AD9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>32</v>
@@ -1643,7 +1643,7 @@
         <v>8.75</v>
       </c>
       <c r="W11" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X11" t="n">
         <v>10.25</v>
@@ -1738,10 +1738,10 @@
         <v>2.77</v>
       </c>
       <c r="N12" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P12" t="n">
         <v>1.52</v>
@@ -1780,7 +1780,7 @@
         <v>5.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
         <v>75</v>
@@ -2262,10 +2262,10 @@
         <v>67</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
@@ -767,37 +767,37 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="J3" t="n">
         <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="N3" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
         <v>2.42</v>
@@ -809,13 +809,13 @@
         <v>4.7</v>
       </c>
       <c r="U3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="V3" t="n">
         <v>9</v>
       </c>
       <c r="W3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
@@ -824,28 +824,28 @@
         <v>45</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB3" t="n">
         <v>25</v>
       </c>
       <c r="AC3" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AH3" t="n">
         <v>100</v>
@@ -889,91 +889,91 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>2.27</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4.35</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="N4" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T4" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="U4" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="W4" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>37</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AH4" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI4" t="n">
         <v>50</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>60</v>
       </c>
       <c r="AJ4" t="n">
         <v>800</v>
@@ -1132,35 +1132,89 @@
           <t>Tigres</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.3</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>90</v>
+      </c>
       <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1194,36 +1248,92 @@
           <t>Jaguares de Cordoba</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.85</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>16</v>
+      </c>
+      <c r="X7" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1839,13 +1949,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
         <v>1.1</v>
@@ -1866,10 +1976,10 @@
         <v>1.53</v>
       </c>
       <c r="P13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R13" t="n">
         <v>2</v>
@@ -1878,13 +1988,13 @@
         <v>1.73</v>
       </c>
       <c r="T13" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U13" t="n">
+        <v>15</v>
+      </c>
+      <c r="V13" t="n">
         <v>13</v>
-      </c>
-      <c r="V13" t="n">
-        <v>12</v>
       </c>
       <c r="W13" t="n">
         <v>34</v>
@@ -1911,22 +2021,22 @@
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
         <v>10</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="14">
@@ -2196,10 +2306,10 @@
         <v>1.85</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
         <v>1.08</v>
@@ -2220,10 +2330,10 @@
         <v>1.62</v>
       </c>
       <c r="P16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
         <v>2</v>
@@ -2232,28 +2342,28 @@
         <v>1.73</v>
       </c>
       <c r="T16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z16" t="n">
         <v>8</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB16" t="n">
         <v>19</v>
@@ -2274,7 +2384,7 @@
         <v>41</v>
       </c>
       <c r="AH16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
         <v>41</v>
@@ -2315,13 +2425,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
@@ -2354,19 +2464,19 @@
         <v>1.73</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V17" t="n">
         <v>11</v>
       </c>
       <c r="W17" t="n">
+        <v>29</v>
+      </c>
+      <c r="X17" t="n">
         <v>26</v>
-      </c>
-      <c r="X17" t="n">
-        <v>23</v>
       </c>
       <c r="Y17" t="n">
         <v>41</v>
@@ -2381,25 +2491,25 @@
         <v>17</v>
       </c>
       <c r="AC17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
         <v>900</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
@@ -656,10 +656,10 @@
         <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.67</v>
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
         <v>1.11</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.47</v>
@@ -910,16 +910,16 @@
         <v>2.5</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R4" t="n">
         <v>2.02</v>
@@ -931,13 +931,13 @@
         <v>6.1</v>
       </c>
       <c r="U4" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V4" t="n">
         <v>9.25</v>
       </c>
       <c r="W4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -946,34 +946,34 @@
         <v>37</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>100</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
         <v>50</v>
       </c>
       <c r="AH4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
         <v>800</v>
@@ -1249,75 +1249,75 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="T7" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="U7" t="n">
         <v>8.5</v>
       </c>
       <c r="V7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
         <v>13</v>
@@ -1326,13 +1326,13 @@
         <v>60</v>
       </c>
       <c r="AH7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -2425,19 +2425,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.4</v>
@@ -2464,19 +2464,19 @@
         <v>1.73</v>
       </c>
       <c r="T17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W17" t="n">
+        <v>34</v>
+      </c>
+      <c r="X17" t="n">
         <v>29</v>
-      </c>
-      <c r="X17" t="n">
-        <v>26</v>
       </c>
       <c r="Y17" t="n">
         <v>41</v>
@@ -2494,19 +2494,19 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
         <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
@@ -1489,82 +1489,82 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="H9" t="n">
         <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.85</v>
+        <v>5.4</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="O9" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="U9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V9" t="n">
         <v>8.25</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA9" t="n">
         <v>9</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AH9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI9" t="n">
         <v>40</v>
       </c>
-      <c r="AI9" t="n">
-        <v>37</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10">
@@ -1599,23 +1599,23 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="O10" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1623,52 +1623,52 @@
         <v>1.47</v>
       </c>
       <c r="S10" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="T10" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="U10" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF10" t="n">
         <v>11.75</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11.25</v>
       </c>
       <c r="AG10" t="n">
         <v>45</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
         <v>25</v>
@@ -1830,7 +1830,7 @@
         <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I12" t="n">
         <v>3.6</v>
@@ -1839,19 +1839,19 @@
         <v>1.09</v>
       </c>
       <c r="K12" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.39</v>
       </c>
       <c r="M12" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="N12" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P12" t="n">
         <v>1.52</v>
@@ -1875,7 +1875,7 @@
         <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X12" t="n">
         <v>18</v>
@@ -1884,10 +1884,10 @@
         <v>30</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB12" t="n">
         <v>14.5</v>
@@ -1905,7 +1905,7 @@
         <v>12.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH12" t="n">
         <v>37</v>
@@ -2437,7 +2437,7 @@
         <v>1.08</v>
       </c>
       <c r="K17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
         <v>1.4</v>
@@ -2446,10 +2446,10 @@
         <v>2.75</v>
       </c>
       <c r="N17" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O17" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P17" t="n">
         <v>1.5</v>
@@ -2512,7 +2512,7 @@
         <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
@@ -1020,10 +1020,10 @@
         <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
         <v>3.55</v>
       </c>
       <c r="I6" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1162,22 +1162,22 @@
         <v>2.32</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="U6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="V6" t="n">
         <v>8.75</v>
       </c>
       <c r="W6" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="X6" t="n">
         <v>15.5</v>
@@ -1186,10 +1186,10 @@
         <v>40</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1198,19 +1198,19 @@
         <v>150</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AH6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="n">
         <v>90</v>
@@ -1249,42 +1249,42 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P7" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
         <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T7" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="U7" t="n">
         <v>8.5</v>
@@ -1293,19 +1293,19 @@
         <v>8.25</v>
       </c>
       <c r="W7" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1314,22 +1314,22 @@
         <v>70</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AH7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ7" t="n">
         <v>600</v>
@@ -1388,10 +1388,10 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1492,20 +1492,20 @@
         <v>1.47</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="O9" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1513,10 +1513,10 @@
         <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T9" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U9" t="n">
         <v>8.5</v>
@@ -1534,25 +1534,25 @@
         <v>20</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
         <v>55</v>
       </c>
       <c r="AD9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
         <v>37</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG9" t="n">
         <v>100</v>
@@ -1564,7 +1564,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
         <v>3.3</v>
@@ -1632,16 +1632,16 @@
         <v>11.5</v>
       </c>
       <c r="V10" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X10" t="n">
         <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="n">
         <v>17.5</v>
@@ -1668,7 +1668,7 @@
         <v>45</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
         <v>25</v>
@@ -1709,27 +1709,27 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
         <v>4.85</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M11" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="N11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="O11" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
         <v>1.21</v>
@@ -1738,10 +1738,10 @@
         <v>3.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
         <v>12</v>
@@ -1753,7 +1753,7 @@
         <v>8.75</v>
       </c>
       <c r="W11" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X11" t="n">
         <v>10.25</v>
@@ -1762,7 +1762,7 @@
         <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA11" t="n">
         <v>10.75</v>
@@ -1774,13 +1774,13 @@
         <v>40</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
         <v>120</v>
@@ -1827,13 +1827,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="H12" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
         <v>1.09</v>
@@ -1842,7 +1842,7 @@
         <v>6.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
         <v>2.8</v>
@@ -1866,10 +1866,10 @@
         <v>1.87</v>
       </c>
       <c r="T12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="U12" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
@@ -1878,7 +1878,7 @@
         <v>20</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
         <v>30</v>
@@ -1887,28 +1887,28 @@
         <v>6.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH12" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI12" t="n">
         <v>45</v>
@@ -1952,46 +1952,46 @@
         <v>3.4</v>
       </c>
       <c r="H13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M13" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>7</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P13" t="n">
         <v>1.44</v>
       </c>
-      <c r="M13" t="n">
+      <c r="Q13" t="n">
         <v>2.63</v>
       </c>
-      <c r="N13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S13" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V13" t="n">
         <v>13</v>
@@ -2006,25 +2006,25 @@
         <v>41</v>
       </c>
       <c r="Z13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA13" t="n">
         <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG13" t="n">
         <v>21</v>
@@ -2036,7 +2036,7 @@
         <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14">
@@ -2312,22 +2312,22 @@
         <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N16" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P16" t="n">
         <v>1.5</v>
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
@@ -2440,10 +2440,10 @@
         <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N17" t="n">
         <v>2.35</v>
@@ -2464,19 +2464,19 @@
         <v>1.73</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W17" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="X17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y17" t="n">
         <v>41</v>
@@ -2491,28 +2491,28 @@
         <v>17</v>
       </c>
       <c r="AC17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H4" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
         <v>1.11</v>
@@ -916,10 +916,10 @@
         <v>1.52</v>
       </c>
       <c r="P4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
         <v>2.02</v>
@@ -931,16 +931,16 @@
         <v>6.1</v>
       </c>
       <c r="U4" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V4" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
         <v>37</v>
@@ -949,7 +949,7 @@
         <v>5.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB4" t="n">
         <v>17</v>
@@ -958,16 +958,16 @@
         <v>100</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AE4" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH4" t="n">
         <v>40</v>
@@ -1136,10 +1136,10 @@
         <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1156,10 +1156,10 @@
         <v>1.55</v>
       </c>
       <c r="P6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R6" t="n">
         <v>2.18</v>
@@ -1177,7 +1177,7 @@
         <v>8.75</v>
       </c>
       <c r="W6" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
         <v>15.5</v>
@@ -1189,7 +1189,7 @@
         <v>7.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1198,7 +1198,7 @@
         <v>150</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE6" t="n">
         <v>32</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
         <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1278,61 +1278,61 @@
         <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="T7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U7" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V7" t="n">
         <v>8.25</v>
       </c>
       <c r="W7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X7" t="n">
         <v>14.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>14</v>
-      </c>
       <c r="Y7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AH7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI7" t="n">
         <v>40</v>
       </c>
-      <c r="AI7" t="n">
-        <v>45</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
@@ -1712,24 +1712,24 @@
         <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M11" t="n">
         <v>5.7</v>
       </c>
       <c r="N11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="P11" t="n">
         <v>1.21</v>
@@ -1744,16 +1744,16 @@
         <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U11" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V11" t="n">
         <v>8.75</v>
       </c>
       <c r="W11" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X11" t="n">
         <v>10.25</v>
@@ -1765,22 +1765,22 @@
         <v>27</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD11" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG11" t="n">
         <v>120</v>
@@ -1789,7 +1789,7 @@
         <v>50</v>
       </c>
       <c r="AI11" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
         <v>200</v>
@@ -1961,7 +1961,7 @@
         <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2074,42 +2074,42 @@
         <v>1.78</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R14" t="n">
         <v>2.27</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.25</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="U14" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="V14" t="n">
         <v>9.25</v>
@@ -2118,19 +2118,19 @@
         <v>13.5</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA14" t="n">
         <v>6.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC14" t="n">
         <v>175</v>
@@ -2142,13 +2142,13 @@
         <v>23</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI14" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-02.xlsx
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
         <v>1.11</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="N4" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="O4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
@@ -928,49 +928,49 @@
         <v>1.72</v>
       </c>
       <c r="T4" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="U4" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="V4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
         <v>37</v>
       </c>
       <c r="Z4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA4" t="n">
         <v>5.6</v>
       </c>
-      <c r="AA4" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC4" t="n">
         <v>100</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI4" t="n">
         <v>55</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
@@ -1068,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
@@ -1089,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH5" t="n">
         <v>34</v>
@@ -1255,7 +1255,7 @@
         <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1281,7 +1281,7 @@
         <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T7" t="n">
         <v>7.3</v>
@@ -1308,19 +1308,19 @@
         <v>6.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
         <v>55</v>
@@ -1388,10 +1388,10 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1602,7 +1602,7 @@
         <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
         <v>3.3</v>
@@ -1615,21 +1615,21 @@
         <v>1.47</v>
       </c>
       <c r="O10" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="T10" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="U10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V10" t="n">
         <v>8.75</v>
@@ -1638,10 +1638,10 @@
         <v>18</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z10" t="n">
         <v>17.5</v>
@@ -1668,7 +1668,7 @@
         <v>45</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
         <v>25</v>
@@ -1712,30 +1712,30 @@
         <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="I11" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M11" t="n">
         <v>5.7</v>
       </c>
       <c r="N11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="O11" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
         <v>1.21</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
         <v>1.5</v>
@@ -1744,16 +1744,16 @@
         <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="U11" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V11" t="n">
         <v>8.75</v>
       </c>
       <c r="W11" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X11" t="n">
         <v>10.25</v>
@@ -1768,19 +1768,19 @@
         <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
         <v>120</v>
@@ -1789,7 +1789,7 @@
         <v>50</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ11" t="n">
         <v>200</v>
@@ -1827,25 +1827,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
         <v>1.09</v>
       </c>
       <c r="K12" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="N12" t="n">
         <v>2.12</v>
@@ -1854,28 +1854,28 @@
         <v>1.65</v>
       </c>
       <c r="P12" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T12" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="U12" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="V12" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X12" t="n">
         <v>18.5</v>
@@ -1884,28 +1884,28 @@
         <v>30</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG12" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AH12" t="n">
         <v>35</v>
@@ -1914,7 +1914,7 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
@@ -2440,10 +2440,10 @@
         <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N17" t="n">
         <v>2.35</v>
@@ -2464,19 +2464,19 @@
         <v>1.73</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V17" t="n">
         <v>11</v>
       </c>
       <c r="W17" t="n">
+        <v>29</v>
+      </c>
+      <c r="X17" t="n">
         <v>26</v>
-      </c>
-      <c r="X17" t="n">
-        <v>23</v>
       </c>
       <c r="Y17" t="n">
         <v>41</v>
@@ -2497,10 +2497,10 @@
         <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
         <v>26</v>
